--- a/data/trans_bre/P45C_R1-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.575472281875762</v>
+        <v>-3.486493029668351</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.500358550965595</v>
+        <v>-1.522772259940275</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8291421103255681</v>
+        <v>-0.8540959801337273</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.819811818905724</v>
+        <v>-2.479314201759366</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8008592821339511</v>
+        <v>-0.8069024242034665</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7506537223528544</v>
+        <v>-0.7996879947923174</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5321168734468779</v>
+        <v>-0.5199609880604431</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6584462281165644</v>
+        <v>-0.6440001157784131</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.06532414932484788</v>
+        <v>-0.1446013499188095</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.37937791931667</v>
+        <v>0.3322391800867989</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.100042190677084</v>
+        <v>1.099028012334512</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.107626677302729</v>
+        <v>1.268609022165305</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.03256713054045468</v>
+        <v>-0.01754062827350213</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6035812411782042</v>
+        <v>0.4621689378723034</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.749748465382222</v>
+        <v>1.698033463788922</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8122165484924111</v>
+        <v>0.9386659189595676</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.2948252082106521</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.06887319243671537</v>
+        <v>-0.06887319243671486</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.143226721496729</v>
@@ -749,7 +749,7 @@
         <v>0.459056035983629</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.06623530755086632</v>
+        <v>-0.06623530755086586</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.8869432815270553</v>
+        <v>-0.7241510279384742</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4609772665165209</v>
+        <v>0.4490978556696555</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.5076377507835493</v>
+        <v>-0.5002517504877291</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.9699204725449639</v>
+        <v>-1.080010857862689</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5384493020799451</v>
+        <v>-0.4794027016536379</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2898352852774819</v>
+        <v>0.252607748237644</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5640352433503717</v>
+        <v>-0.5967138132294383</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6507038321425146</v>
+        <v>-0.6664130615989418</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.202423118190598</v>
+        <v>1.215108812412358</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.716581722673663</v>
+        <v>2.633033833715965</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.087122766801572</v>
+        <v>1.142431850525065</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8511187104935771</v>
+        <v>0.8148618085309929</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.450140397704185</v>
+        <v>1.541659691298197</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.394003154752584</v>
+        <v>4.965236705373336</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.485946030336404</v>
+        <v>3.580732068799079</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.889215472953482</v>
+        <v>1.546552089510906</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.186481764226766</v>
+        <v>-1.292109812544196</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3364668710016365</v>
+        <v>-0.3637784062289452</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.655468518594135</v>
+        <v>-0.703411638636658</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.137218389558854</v>
+        <v>-1.383464914283078</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5188900167146373</v>
+        <v>-0.5668317431685033</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3557680367777153</v>
+        <v>-0.3375152242757607</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6636490290466928</v>
+        <v>-0.6705466070479021</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5777495949730579</v>
+        <v>-0.6319181723244097</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.093263205872482</v>
+        <v>1.016101329276267</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.746649889256481</v>
+        <v>1.647906695778737</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.211962492103654</v>
+        <v>1.142929421409298</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9071373416007765</v>
+        <v>0.8449113502199833</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.10254337387707</v>
+        <v>0.9430119864665383</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>4.466332178418905</v>
+        <v>4.315822897221119</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.909860616740988</v>
+        <v>4.490918418765159</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.266754988265058</v>
+        <v>1.172619416657261</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.1264363098477859</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.01690004397398963</v>
+        <v>-0.01690004397398928</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.815781222364295</v>
@@ -949,7 +949,7 @@
         <v>0.09997013991845091</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.007466991444081466</v>
+        <v>-0.007466991444081313</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2056444534038879</v>
+        <v>0.08323938358431347</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.834709763361626</v>
+        <v>-2.994883804275921</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.274990894334306</v>
+        <v>-1.263888685902729</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.384255430494387</v>
+        <v>-1.707082529385186</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.08180448290677701</v>
+        <v>-0.1449301381488764</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7336954026661173</v>
+        <v>-0.7594259105068423</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6726790535432294</v>
+        <v>-0.6737664858337007</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4514706373698253</v>
+        <v>-0.5157629871928999</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.704516009693839</v>
+        <v>4.767791826439026</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.994638140134419</v>
+        <v>1.012602154759095</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.672902625758202</v>
+        <v>1.531283991826579</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.527222951371401</v>
+        <v>1.259020315140772</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9.198757325545335</v>
+        <v>8.461561038331517</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7134764711168123</v>
+        <v>0.7043915014072499</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.356490495043441</v>
+        <v>3.064258191756307</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.020464163149216</v>
+        <v>0.8345155009518291</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.2066110399009344</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.1441249534579024</v>
+        <v>-0.1441249534579025</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.02503575335736229</v>
@@ -1049,7 +1049,7 @@
         <v>0.2239756049125912</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.08478279422256241</v>
+        <v>-0.0847827942225625</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7009076122895088</v>
+        <v>-0.704961751192599</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2606551245739738</v>
+        <v>-0.2861976145196748</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3339386817955285</v>
+        <v>-0.3263099223310283</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.8435512580179931</v>
+        <v>-0.8024452571201726</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.343945538815928</v>
+        <v>-0.3386528585926822</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1620640803284592</v>
+        <v>-0.1898416226380241</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2922087485642546</v>
+        <v>-0.2818963758055627</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4010550041098569</v>
+        <v>-0.3757741860686675</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6334381301220408</v>
+        <v>0.6138332604479594</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8987080615720776</v>
+        <v>0.8748997390852402</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6596449815867392</v>
+        <v>0.6941057967203721</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4567038667144459</v>
+        <v>0.4644635054009298</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4765008767466734</v>
+        <v>0.4510102990180223</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9356427481316887</v>
+        <v>0.8521570013911829</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9270408690586338</v>
+        <v>1.028619066286731</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.358848358457786</v>
+        <v>0.3398144808119188</v>
       </c>
     </row>
     <row r="19">
